--- a/CustomActivity/ReportGeneration/Report.xlsx
+++ b/CustomActivity/ReportGeneration/Report.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\RPA-Project\CustomActivity\ReportGeneration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eveli\Git\RPA-Project\CustomActivity\ReportGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6961D009-F81F-43C7-9B0D-E080411A3443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A5BEFF-5E46-4724-9862-B66C7B382FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="1470" windowWidth="20070" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ravel - Bolero. Sergiu Celibid" sheetId="47" r:id="rId1"/>
-    <sheet name="Wagner - Tannhäuser - Overture" sheetId="48" r:id="rId2"/>
+    <sheet name="Lucru" sheetId="49" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -337,24 +336,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE210E5-147F-45FF-B998-A44404107C6E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690A6B7F-2C08-4632-83E6-4841F17C6092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A1EA06-65CB-4A31-9F8C-AA581921A77A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
